--- a/Excel/Excel.xlsx
+++ b/Excel/Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinesh.Kanna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinesh.Kanna\eclipse-workspace\IGT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>UserID</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>goud@igt.com</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -490,15 +493,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +511,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -519,8 +525,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -530,8 +539,11 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -541,8 +553,11 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>8765432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -552,8 +567,11 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -562,6 +580,9 @@
       </c>
       <c r="C6" t="s">
         <v>20</v>
+      </c>
+      <c r="D6">
+        <v>987654</v>
       </c>
     </row>
   </sheetData>
